--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t xml:space="preserve">DUMMY </t>
+  </si>
+  <si>
+    <t>prob_enceph_severity</t>
+  </si>
+  <si>
+    <t>[0.422, 0.338, 0.24]</t>
+  </si>
+  <si>
+    <t>prob_retinopathy_severity</t>
+  </si>
+  <si>
+    <t>[0.4, 0.3, 0.2, 0.1]</t>
   </si>
 </sst>
 </file>
@@ -456,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +528,7 @@
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -538,7 +550,7 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -549,7 +561,7 @@
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1.2E-2</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -558,32 +570,29 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.214</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>0.214</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>22</v>
@@ -591,89 +600,111 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>0.77</v>
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>0.56000000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
+        <v>0.77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B17">
-        <v>0.38</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>0.6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>0.38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>0.91800000000000004</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>20</v>
       </c>
     </row>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>[0.4, 0.3, 0.2, 0.1]</t>
+  </si>
+  <si>
+    <t>cfr_respiratory_depression</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,6 +711,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>0.15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,14 +553,17 @@
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>0.16</v>
+      </c>
+      <c r="C7" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -683,6 +686,9 @@
         <v>6</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>0.38</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -694,6 +700,9 @@
         <v>12</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>0.27700000000000002</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -705,6 +714,9 @@
         <v>13</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>0.91800000000000004</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -716,6 +728,9 @@
         <v>38</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>0.15</v>
       </c>
     </row>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -474,7 +474,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,9 +686,6 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
         <v>0.38</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -700,9 +697,6 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
         <v>0.27700000000000002</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -714,9 +708,6 @@
         <v>13</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
         <v>0.91800000000000004</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -728,9 +719,6 @@
         <v>38</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
         <v>0.15</v>
       </c>
     </row>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -35,15 +35,6 @@
     <t>prob_early_onset_neonatal_sepsis</t>
   </si>
   <si>
-    <t>prob_ivh_preterm</t>
-  </si>
-  <si>
-    <t>prob_nec_preterm</t>
-  </si>
-  <si>
-    <t>prob_nrds_preterm</t>
-  </si>
-  <si>
     <t>cfr_neonatal_sepsis</t>
   </si>
   <si>
@@ -62,12 +53,6 @@
     <t>prob_successful_resuscitation</t>
   </si>
   <si>
-    <t>cfr_enceph_mild_mod</t>
-  </si>
-  <si>
-    <t>cfr_enceph_severe</t>
-  </si>
-  <si>
     <t>prob_encephalopathy</t>
   </si>
   <si>
@@ -89,12 +74,6 @@
     <t>Intrapartum-related neonatal encephalopathy incidence and impairment at regional and global levels for 2010 with trends from 1990 (Lee et al. 2013)</t>
   </si>
   <si>
-    <t>Improving incidence trends of severe intraventricular haemorrhages in preterm infants (Yeo et al 2019)</t>
-  </si>
-  <si>
-    <t>Evaluating WHO-Recommended Interventions for Preterm Birth: A Mathematical Model of the Potential Reduction of Preterm Mortality in Sub-Saharan Africa (Griffen et al 2019)</t>
-  </si>
-  <si>
     <t>Malawi Demographic and Health Survey (2015)</t>
   </si>
   <si>
@@ -107,9 +86,6 @@
     <t>Malawi Service Provision Assesment (2014)</t>
   </si>
   <si>
-    <t>prob_resp_depression</t>
-  </si>
-  <si>
     <t>prob_congenital_ba</t>
   </si>
   <si>
@@ -140,7 +116,19 @@
     <t>[0.4, 0.3, 0.2, 0.1]</t>
   </si>
   <si>
-    <t>cfr_respiratory_depression</t>
+    <t>prob_failure_to_transition</t>
+  </si>
+  <si>
+    <t>prob_care_seeking_for_complication</t>
+  </si>
+  <si>
+    <t>cfr_encephalopathy</t>
+  </si>
+  <si>
+    <t>cfr_failed_to_transition</t>
+  </si>
+  <si>
+    <t>cfr_preterm_birth</t>
   </si>
 </sst>
 </file>
@@ -471,30 +459,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -502,10 +490,10 @@
         <v>0.121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -513,32 +501,32 @@
         <v>0.12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -546,12 +534,12 @@
         <v>6.2E-2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>0.16</v>
@@ -560,166 +548,138 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>1.2E-2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>0.67</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0.77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>0.6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0.15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0.214</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0.15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>0.67</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>0.77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>0.6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
       <c r="B19">
-        <v>0.38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="parameter_values" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,18 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Joseph Collins</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Joseph Collins:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+starting at 24 weeks, red are dummys</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
   <si>
-    <t>base_incidence_sga</t>
-  </si>
-  <si>
-    <t>prob_early_onset_neonatal_sepsis</t>
-  </si>
-  <si>
     <t>cfr_neonatal_sepsis</t>
   </si>
   <si>
@@ -53,9 +82,6 @@
     <t>prob_successful_resuscitation</t>
   </si>
   <si>
-    <t>prob_encephalopathy</t>
-  </si>
-  <si>
     <t>Source/Early assumptions</t>
   </si>
   <si>
@@ -129,13 +155,99 @@
   </si>
   <si>
     <t>cfr_preterm_birth</t>
+  </si>
+  <si>
+    <t>mean_birth_weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthropometry of Malawian live births between 35 and 41 weeks of gestation AND Anthropometric Charts for Infants Born Between 22 and 29 Weeks’ Gestation
+</t>
+  </si>
+  <si>
+    <r>
+      <t>[657, 746, 851, 966, 1096,1240,1300</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,1600,1850,2150,2200</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2442,2736,2856, 2995, 3036, 3117, 3136]</t>
+    </r>
+  </si>
+  <si>
+    <t>red= made up</t>
+  </si>
+  <si>
+    <t>odds_early_onset_neonatal_sepsis</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_partiy0</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_preterm</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_lbw</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_vlbw</t>
+  </si>
+  <si>
+    <t>Risk Factors for Neonatal Sepsis and Perinatal Death Among Infants Enrolled in the Prevention of Perinatal Sepsis Trial, Soweto, South Africa</t>
+  </si>
+  <si>
+    <t>odds_enceph_hypertension</t>
+  </si>
+  <si>
+    <t>odds_enceph_males</t>
+  </si>
+  <si>
+    <t>odds_enceph_obstructed_labour</t>
+  </si>
+  <si>
+    <t>odds_enceph_acute_event</t>
+  </si>
+  <si>
+    <t>odds_encephalopathy</t>
+  </si>
+  <si>
+    <t>Perinatal risk factors for neonatal encephalopathy: an unmatched case-control study</t>
+  </si>
+  <si>
+    <t>odds_enceph_neonatal_sepsis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +263,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -173,12 +314,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,28 +602,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -490,200 +634,344 @@
         <v>0.121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
-        <v>6.2E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>0.16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>37</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
-        <v>1.2E-2</v>
+        <v>2.6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>0.15</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0.16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>0.67</v>
+        <v>46</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.2E-2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0.77</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>0.6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
+        <v>43</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>0.38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>44</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17">
-        <v>0.15</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+      <c r="B17" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18">
-        <v>0.15</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>0.25</v>
+        <v>0.15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>0.67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0.77</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0.6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="B28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
         <v>0.5</v>
       </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>odds_enceph_neonatal_sepsis</t>
+  </si>
+  <si>
+    <t>rr_sepsis_tetracycline</t>
   </si>
 </sst>
 </file>
@@ -603,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,52 +890,60 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B25">
-        <v>0.38</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>0.2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0.15</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
@@ -954,6 +965,9 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -244,6 +244,30 @@
   </si>
   <si>
     <t>rr_sepsis_tetracycline</t>
+  </si>
+  <si>
+    <t>rr_sepsis_cord_care</t>
+  </si>
+  <si>
+    <t>Effect of chlorhexidine cord application on prevention of neonatal sepsis in developing countries: Systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_neonatal_sepsis_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_neonatal_sepsis_hp</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_ftt_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_ftt_hp</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_lbw_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_lbw_hp</t>
   </si>
 </sst>
 </file>
@@ -606,19 +630,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -629,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -640,7 +664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -654,7 +678,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -665,7 +689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -676,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -687,7 +711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -698,7 +722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -709,7 +733,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -720,7 +744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -731,7 +755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -745,7 +769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -756,7 +780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -767,7 +791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -778,7 +802,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -789,7 +813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -800,7 +824,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -811,7 +835,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -822,7 +846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -833,7 +857,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -844,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -855,7 +879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -866,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -877,7 +901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -888,86 +912,148 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
       <c r="B25">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>0.38</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>29</v>
-      </c>
-      <c r="B27">
-        <v>0.15</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
       </c>
       <c r="B28">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>0.6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33">
+        <v>0.3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>0.9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35">
+        <v>0.65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <v>0.6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37">
+        <v>0.3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,7 +1070,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_values" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -207,9 +207,6 @@
     <t>odds_early_onset_neonatal_sepsis</t>
   </si>
   <si>
-    <t>odds_ratio_sepsis_partiy0</t>
-  </si>
-  <si>
     <t>odds_ratio_sepsis_preterm</t>
   </si>
   <si>
@@ -268,6 +265,57 @@
   </si>
   <si>
     <t>sensitivity_of_assessment_of_lbw_hp</t>
+  </si>
+  <si>
+    <t>prob_mild_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>prob_mod_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>prob_severe_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>[0.3, 0.3,  0.2,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.1,  0.1,  0.3, 0.4]</t>
+  </si>
+  <si>
+    <t>DATA - intrapartum-related neonatal encephalopathy incidence and impairment at regional and global levels for 2010 with trends from 1990</t>
+  </si>
+  <si>
+    <t>[0.4, 0.1,  0.3,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>prob_sepsis_disabilities</t>
+  </si>
+  <si>
+    <t>[0.2, 0.2,  0.1,  0.2, 0.3]</t>
+  </si>
+  <si>
+    <t>prob_disability_&lt;28wks</t>
+  </si>
+  <si>
+    <t>prob_disability_28_32wks</t>
+  </si>
+  <si>
+    <t>prob_disability_33_36wks</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_parity0</t>
+  </si>
+  <si>
+    <t>prompt_treatment_effect_sepsis</t>
+  </si>
+  <si>
+    <t>delayed_treatment_effect_sepsis</t>
+  </si>
+  <si>
+    <t>[0.5, 0.1,  0.2,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.2,  0.1,  0.4, 0.2]</t>
   </si>
 </sst>
 </file>
@@ -630,19 +678,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -653,7 +701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -664,7 +712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -678,382 +726,480 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B9" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B11" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="1">
         <v>1.8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0.16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
-        <v>0.16</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B20" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="1">
-        <v>8.67</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="1">
-        <v>3.77</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B21" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B22" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="B23" s="1">
         <v>8.74</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D23" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0.15</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>0.67</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>0.77</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24">
-        <v>0.6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25">
-        <v>0.8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26">
-        <v>0.64</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>0.38</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
       </c>
       <c r="B28">
         <v>0.15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>52</v>
+        <v>0.77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>15</v>
       </c>
       <c r="B32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
         <v>0.6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33">
-        <v>0.3</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>54</v>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
       </c>
       <c r="B34">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>0.64</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>0.38</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>0.15</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>0.6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42">
+        <v>0.3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>0.9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44">
+        <v>0.65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B35">
-        <v>0.65</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="B45">
+        <v>0.6</v>
+      </c>
+      <c r="D45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B36">
-        <v>0.6</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B46">
+        <v>0.3</v>
+      </c>
+      <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37">
-        <v>0.3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1070,7 +1216,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_values" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -316,6 +316,12 @@
   </si>
   <si>
     <t>[0.1, 0.2,  0.1,  0.4, 0.2]</t>
+  </si>
+  <si>
+    <t>rr_preterm_death_steroids</t>
+  </si>
+  <si>
+    <t>Antenatal corticosteroids for accelerating fetal lung maturation for women at risk of preterm birth</t>
   </si>
 </sst>
 </file>
@@ -678,19 +684,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -701,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -712,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -726,7 +732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -737,7 +743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -748,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -757,7 +763,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -768,7 +774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -779,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -790,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -801,7 +807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -812,7 +818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -823,7 +829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -834,7 +840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -843,7 +849,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -854,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -865,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -879,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -890,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -901,7 +907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -912,7 +918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -923,7 +929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -934,7 +940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -945,7 +951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -956,7 +962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -970,7 +976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -981,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -992,7 +998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1003,7 +1009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1014,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1036,7 +1042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1069,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1118,88 +1124,99 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40">
+        <v>0.69</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>0.5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41">
-        <v>0.6</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B45">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47">
+        <v>0.3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1216,7 +1233,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_values" sheetId="1" r:id="rId1"/>
@@ -687,16 +687,16 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -707,7 +707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -718,7 +718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -732,7 +732,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -743,7 +743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -754,7 +754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -763,7 +763,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -774,7 +774,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -807,7 +807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -818,7 +818,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
@@ -829,7 +829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -840,7 +840,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -849,7 +849,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>70</v>
       </c>
@@ -860,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -871,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -896,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -907,7 +907,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -918,7 +918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -929,7 +929,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -940,7 +940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -951,7 +951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -962,7 +962,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -976,7 +976,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -987,7 +987,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -998,7 +998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>56</v>
       </c>
@@ -1212,10 +1212,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
     </row>
   </sheetData>
@@ -1233,7 +1233,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -687,7 +687,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +789,10 @@
       <c r="A9" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -876,7 +879,7 @@
         <v>27</v>
       </c>
       <c r="B17">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="C17" s="1">
         <v>2.5000000000000001E-2</v>
@@ -890,6 +893,9 @@
         <v>45</v>
       </c>
       <c r="B18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="1">
         <v>1.2E-2</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1091,6 +1097,9 @@
         <v>1</v>
       </c>
       <c r="B36">
+        <v>0.25</v>
+      </c>
+      <c r="C36">
         <v>0.38</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -1102,6 +1111,9 @@
         <v>29</v>
       </c>
       <c r="B37">
+        <v>0.25</v>
+      </c>
+      <c r="C37">
         <v>0.15</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1113,6 +1125,9 @@
         <v>30</v>
       </c>
       <c r="B38">
+        <v>0.25</v>
+      </c>
+      <c r="C38">
         <v>0.15</v>
       </c>
     </row>
@@ -1121,6 +1136,9 @@
         <v>31</v>
       </c>
       <c r="B39">
+        <v>0.25</v>
+      </c>
+      <c r="C39">
         <v>0.25</v>
       </c>
     </row>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,7 +790,7 @@
         <v>36</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="1">
         <v>6.7000000000000004E-2</v>
@@ -1059,7 +1059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1164,73 +1164,109 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.4</v>
+      </c>
+      <c r="D42">
         <v>0.6</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B43">
+        <v>0.9</v>
+      </c>
+      <c r="C43">
+        <v>0.8</v>
+      </c>
+      <c r="D43">
         <v>0.3</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>0.4</v>
+      </c>
+      <c r="D44">
         <v>0.9</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B45">
+        <v>0.9</v>
+      </c>
+      <c r="C45">
+        <v>0.8</v>
+      </c>
+      <c r="D45">
         <v>0.65</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0.4</v>
+      </c>
+      <c r="D46">
         <v>0.6</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B47">
+        <v>0.9</v>
+      </c>
+      <c r="C47">
+        <v>0.8</v>
+      </c>
+      <c r="D47">
         <v>0.3</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,6 +1147,9 @@
         <v>74</v>
       </c>
       <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="C40">
         <v>0.69</v>
       </c>
       <c r="D40" s="5" t="s">

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -164,8 +164,134 @@
 </t>
   </si>
   <si>
+    <t>red= made up</t>
+  </si>
+  <si>
+    <t>odds_early_onset_neonatal_sepsis</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_preterm</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_lbw</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_vlbw</t>
+  </si>
+  <si>
+    <t>Risk Factors for Neonatal Sepsis and Perinatal Death Among Infants Enrolled in the Prevention of Perinatal Sepsis Trial, Soweto, South Africa</t>
+  </si>
+  <si>
+    <t>odds_enceph_hypertension</t>
+  </si>
+  <si>
+    <t>odds_enceph_males</t>
+  </si>
+  <si>
+    <t>odds_enceph_obstructed_labour</t>
+  </si>
+  <si>
+    <t>odds_enceph_acute_event</t>
+  </si>
+  <si>
+    <t>odds_encephalopathy</t>
+  </si>
+  <si>
+    <t>Perinatal risk factors for neonatal encephalopathy: an unmatched case-control study</t>
+  </si>
+  <si>
+    <t>odds_enceph_neonatal_sepsis</t>
+  </si>
+  <si>
+    <t>rr_sepsis_tetracycline</t>
+  </si>
+  <si>
+    <t>rr_sepsis_cord_care</t>
+  </si>
+  <si>
+    <t>Effect of chlorhexidine cord application on prevention of neonatal sepsis in developing countries: Systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_neonatal_sepsis_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_neonatal_sepsis_hp</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_ftt_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_ftt_hp</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_lbw_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_lbw_hp</t>
+  </si>
+  <si>
+    <t>prob_mild_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>prob_mod_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>prob_severe_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>[0.3, 0.3,  0.2,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.1,  0.1,  0.3, 0.4]</t>
+  </si>
+  <si>
+    <t>DATA - intrapartum-related neonatal encephalopathy incidence and impairment at regional and global levels for 2010 with trends from 1990</t>
+  </si>
+  <si>
+    <t>[0.4, 0.1,  0.3,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>prob_sepsis_disabilities</t>
+  </si>
+  <si>
+    <t>[0.2, 0.2,  0.1,  0.2, 0.3]</t>
+  </si>
+  <si>
+    <t>prob_disability_&lt;28wks</t>
+  </si>
+  <si>
+    <t>prob_disability_28_32wks</t>
+  </si>
+  <si>
+    <t>prob_disability_33_36wks</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_parity0</t>
+  </si>
+  <si>
+    <t>prompt_treatment_effect_sepsis</t>
+  </si>
+  <si>
+    <t>delayed_treatment_effect_sepsis</t>
+  </si>
+  <si>
+    <t>[0.5, 0.1,  0.2,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.2,  0.1,  0.4, 0.2]</t>
+  </si>
+  <si>
+    <t>rr_preterm_death_steroids</t>
+  </si>
+  <si>
+    <t>Antenatal corticosteroids for accelerating fetal lung maturation for women at risk of preterm birth</t>
+  </si>
+  <si>
+    <t>standard_deviation_birth_weights</t>
+  </si>
+  <si>
     <r>
-      <t>[657, 746, 851, 966, 1096,1240,1300</t>
+      <t>[657, 746, 851, 966, 1096,1240,</t>
     </r>
     <r>
       <rPr>
@@ -176,7 +302,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,1600,1850,2150,2200</t>
+      <t>1300,1600,1850,2150,2200</t>
     </r>
     <r>
       <rPr>
@@ -201,134 +327,67 @@
     </r>
   </si>
   <si>
-    <t>red= made up</t>
-  </si>
-  <si>
-    <t>odds_early_onset_neonatal_sepsis</t>
-  </si>
-  <si>
-    <t>odds_ratio_sepsis_preterm</t>
-  </si>
-  <si>
-    <t>odds_ratio_sepsis_lbw</t>
-  </si>
-  <si>
-    <t>odds_ratio_sepsis_vlbw</t>
-  </si>
-  <si>
-    <t>Risk Factors for Neonatal Sepsis and Perinatal Death Among Infants Enrolled in the Prevention of Perinatal Sepsis Trial, Soweto, South Africa</t>
-  </si>
-  <si>
-    <t>odds_enceph_hypertension</t>
-  </si>
-  <si>
-    <t>odds_enceph_males</t>
-  </si>
-  <si>
-    <t>odds_enceph_obstructed_labour</t>
-  </si>
-  <si>
-    <t>odds_enceph_acute_event</t>
-  </si>
-  <si>
-    <t>odds_encephalopathy</t>
-  </si>
-  <si>
-    <t>Perinatal risk factors for neonatal encephalopathy: an unmatched case-control study</t>
-  </si>
-  <si>
-    <t>odds_enceph_neonatal_sepsis</t>
-  </si>
-  <si>
-    <t>rr_sepsis_tetracycline</t>
-  </si>
-  <si>
-    <t>rr_sepsis_cord_care</t>
-  </si>
-  <si>
-    <t>Effect of chlorhexidine cord application on prevention of neonatal sepsis in developing countries: Systematic review and meta-analysis</t>
-  </si>
-  <si>
-    <t>sensitivity_of_assessment_of_neonatal_sepsis_hc</t>
-  </si>
-  <si>
-    <t>sensitivity_of_assessment_of_neonatal_sepsis_hp</t>
-  </si>
-  <si>
-    <t>sensitivity_of_assessment_of_ftt_hc</t>
-  </si>
-  <si>
-    <t>sensitivity_of_assessment_of_ftt_hp</t>
-  </si>
-  <si>
-    <t>sensitivity_of_assessment_of_lbw_hc</t>
-  </si>
-  <si>
-    <t>sensitivity_of_assessment_of_lbw_hp</t>
-  </si>
-  <si>
-    <t>prob_mild_enceph_disabilities</t>
-  </si>
-  <si>
-    <t>prob_mod_enceph_disabilities</t>
-  </si>
-  <si>
-    <t>prob_severe_enceph_disabilities</t>
-  </si>
-  <si>
-    <t>[0.3, 0.3,  0.2,  0.1, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.1,  0.1,  0.3, 0.4]</t>
-  </si>
-  <si>
-    <t>DATA - intrapartum-related neonatal encephalopathy incidence and impairment at regional and global levels for 2010 with trends from 1990</t>
-  </si>
-  <si>
-    <t>[0.4, 0.1,  0.3,  0.1, 0.1]</t>
-  </si>
-  <si>
-    <t>prob_sepsis_disabilities</t>
-  </si>
-  <si>
-    <t>[0.2, 0.2,  0.1,  0.2, 0.3]</t>
-  </si>
-  <si>
-    <t>prob_disability_&lt;28wks</t>
-  </si>
-  <si>
-    <t>prob_disability_28_32wks</t>
-  </si>
-  <si>
-    <t>prob_disability_33_36wks</t>
-  </si>
-  <si>
-    <t>odds_ratio_sepsis_parity0</t>
-  </si>
-  <si>
-    <t>prompt_treatment_effect_sepsis</t>
-  </si>
-  <si>
-    <t>delayed_treatment_effect_sepsis</t>
-  </si>
-  <si>
-    <t>[0.5, 0.1,  0.2,  0.1, 0.1]</t>
-  </si>
-  <si>
-    <t>[0.1, 0.2,  0.1,  0.4, 0.2]</t>
-  </si>
-  <si>
-    <t>rr_preterm_death_steroids</t>
-  </si>
-  <si>
-    <t>Antenatal corticosteroids for accelerating fetal lung maturation for women at risk of preterm birth</t>
+    <r>
+      <t xml:space="preserve">[113, 140, 169, 196, 218,  235 , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>245,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">260, 270, 285, 296, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">460, 467, 398, 356, 351, 396, 351 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +432,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -684,16 +749,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,32 +788,35 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
@@ -756,30 +824,30 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>18</v>
@@ -787,218 +855,218 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.8</v>
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="B11" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1">
         <v>2.6</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.8</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="1">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>0.1</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
-        <v>8.67</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>46</v>
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1">
-        <v>3.77</v>
+        <v>8.67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1">
-        <v>2.5099999999999998</v>
+        <v>3.77</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1">
-        <v>3.8</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
-        <v>8.74</v>
+        <v>3.8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.74</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" t="s">
-        <v>62</v>
+        <v>24</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>22</v>
@@ -1006,10 +1074,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28">
-        <v>0.15</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>22</v>
@@ -1017,10 +1085,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <v>0.15</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
@@ -1028,21 +1096,21 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>0.67</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
@@ -1050,32 +1118,32 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>0.56000000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>0.6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1083,46 +1151,43 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35">
-        <v>0.64</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>0.8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B36">
-        <v>0.25</v>
-      </c>
-      <c r="C36">
-        <v>0.38</v>
+        <v>0.64</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>0.25</v>
       </c>
       <c r="C37">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>0.25</v>
@@ -1130,72 +1195,69 @@
       <c r="C38">
         <v>0.15</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>0.25</v>
       </c>
       <c r="C39">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C40">
-        <v>0.69</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="B41">
         <v>0.5</v>
       </c>
-      <c r="D41" t="s">
-        <v>8</v>
+      <c r="C41">
+        <v>0.69</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>51</v>
+      <c r="A42" t="s">
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0.4</v>
-      </c>
-      <c r="D42">
-        <v>0.6</v>
-      </c>
-      <c r="E42" t="s">
+        <v>0.5</v>
+      </c>
+      <c r="D42" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D43">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -1203,16 +1265,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C44">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D44">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
@@ -1220,16 +1282,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0.4</v>
+      </c>
+      <c r="D45">
         <v>0.9</v>
-      </c>
-      <c r="C45">
-        <v>0.8</v>
-      </c>
-      <c r="D45">
-        <v>0.65</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
@@ -1237,16 +1299,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C46">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D46">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -1254,26 +1316,43 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D47">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>0.9</v>
+      </c>
+      <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>0.3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_values" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -381,6 +381,24 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>cfr_mild_enceph</t>
+  </si>
+  <si>
+    <t>cfr_moderate_enceph</t>
+  </si>
+  <si>
+    <t>treatment_effect_sepsis</t>
+  </si>
+  <si>
+    <t>cfr_severe_enceph</t>
+  </si>
+  <si>
+    <t>cfr_early_preterm</t>
+  </si>
+  <si>
+    <t>cfr_late_preterm</t>
   </si>
 </sst>
 </file>
@@ -749,19 +767,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.85546875" customWidth="1"/>
+    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -772,7 +790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -783,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -797,7 +815,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -811,7 +829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -822,7 +840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -833,7 +851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -842,7 +860,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -853,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -864,7 +882,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -878,7 +896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -889,7 +907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -900,7 +918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -911,7 +929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -922,7 +940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -931,7 +949,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -942,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -953,255 +971,250 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>0.1</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>1.2E-2</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>8.67</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3.77</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1">
-        <v>2.5099999999999998</v>
+        <v>3.77</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1">
-        <v>3.8</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1">
-        <v>8.74</v>
+        <v>3.8</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8.74</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29">
-        <v>0.15</v>
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B30">
+        <v>0.15</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>0.67</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>0.77</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>0.77</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>15</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>0.6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35">
-        <v>0.8</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36">
+        <v>0.8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.64</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>1</v>
-      </c>
-      <c r="B37">
-        <v>0.25</v>
-      </c>
-      <c r="C37">
-        <v>0.38</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>29</v>
       </c>
       <c r="B38">
         <v>0.25</v>
       </c>
       <c r="C38">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39">
         <v>0.25</v>
@@ -1209,150 +1222,207 @@
       <c r="C39">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>0.25</v>
+      </c>
+      <c r="C43">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
-      <c r="B40">
+      <c r="B44">
         <v>0.25</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <v>0.25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>73</v>
       </c>
-      <c r="B41">
+      <c r="B47">
         <v>0.5</v>
       </c>
-      <c r="C41">
+      <c r="C47">
         <v>0.69</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B42">
+      <c r="B48">
         <v>0.5</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B43">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C43">
+      <c r="C49">
         <v>0.4</v>
       </c>
-      <c r="D43">
+      <c r="D49">
         <v>0.6</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B44">
+      <c r="B50">
         <v>0.9</v>
       </c>
-      <c r="C44">
+      <c r="C50">
         <v>0.8</v>
       </c>
-      <c r="D44">
+      <c r="D50">
         <v>0.3</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B45">
+      <c r="B51">
         <v>1</v>
       </c>
-      <c r="C45">
+      <c r="C51">
         <v>0.4</v>
       </c>
-      <c r="D45">
+      <c r="D51">
         <v>0.9</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B46">
+      <c r="B52">
         <v>0.9</v>
       </c>
-      <c r="C46">
+      <c r="C52">
         <v>0.8</v>
       </c>
-      <c r="D46">
+      <c r="D52">
         <v>0.65</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B47">
+      <c r="B53">
         <v>1</v>
       </c>
-      <c r="C47">
+      <c r="C53">
         <v>0.4</v>
       </c>
-      <c r="D47">
+      <c r="D53">
         <v>0.6</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B48">
+      <c r="B54">
         <v>0.9</v>
       </c>
-      <c r="C48">
+      <c r="C54">
         <v>0.8</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <v>0.3</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,7 +1439,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_values" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>base_incidence_low_birth_weight</t>
   </si>
@@ -79,9 +79,6 @@
     <t>prob_early_breastfeeding_hf</t>
   </si>
   <si>
-    <t>prob_successful_resuscitation</t>
-  </si>
-  <si>
     <t>Source/Early assumptions</t>
   </si>
   <si>
@@ -148,13 +145,7 @@
     <t>prob_care_seeking_for_complication</t>
   </si>
   <si>
-    <t>cfr_encephalopathy</t>
-  </si>
-  <si>
     <t>cfr_failed_to_transition</t>
-  </si>
-  <si>
-    <t>cfr_preterm_birth</t>
   </si>
   <si>
     <t>mean_birth_weights</t>
@@ -389,9 +380,6 @@
     <t>cfr_moderate_enceph</t>
   </si>
   <si>
-    <t>treatment_effect_sepsis</t>
-  </si>
-  <si>
     <t>cfr_severe_enceph</t>
   </si>
   <si>
@@ -399,6 +387,12 @@
   </si>
   <si>
     <t>cfr_late_preterm</t>
+  </si>
+  <si>
+    <t>delayed_treatment_effect_resuscitation</t>
+  </si>
+  <si>
+    <t>prompt_treatment_effect_resuscitation</t>
   </si>
 </sst>
 </file>
@@ -767,19 +761,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B46"/>
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -787,10 +781,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -798,93 +792,93 @@
         <v>0.121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -893,312 +887,307 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>1.8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>2.6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>1.8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
         <v>6.5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="1">
         <v>0.5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1">
         <v>0.3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
         <v>0.1</v>
       </c>
       <c r="C19" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>8.67</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>0.15</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0.67</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1">
-        <v>8.67</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="1">
-        <v>3.77</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="1">
-        <v>8.74</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30">
-        <v>0.15</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>0.77</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="B34">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>0.6</v>
       </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>0.8</v>
       </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0.64</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -1209,116 +1198,136 @@
         <v>0.38</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B39">
-        <v>0.25</v>
-      </c>
-      <c r="C39">
-        <v>0.15</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B40">
         <v>0.1</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <v>0.1</v>
       </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>0.1</v>
-      </c>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+      <c r="C42">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B43">
         <v>0.25</v>
       </c>
-      <c r="C43">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>0.25</v>
       </c>
-      <c r="C44">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B45">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+      <c r="C45">
+        <v>0.69</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>73</v>
+        <v>0.5</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>0.69</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>28</v>
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <v>0.6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.9</v>
+      </c>
+      <c r="C48">
+        <v>0.8</v>
+      </c>
+      <c r="D48">
+        <v>0.3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1327,15 +1336,15 @@
         <v>0.4</v>
       </c>
       <c r="D49">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>0.9</v>
@@ -1344,15 +1353,15 @@
         <v>0.8</v>
       </c>
       <c r="D50">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1361,15 +1370,15 @@
         <v>0.4</v>
       </c>
       <c r="D51">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0.9</v>
@@ -1378,51 +1387,17 @@
         <v>0.8</v>
       </c>
       <c r="D52">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0.4</v>
-      </c>
-      <c r="D53">
-        <v>0.6</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54">
-        <v>0.9</v>
-      </c>
-      <c r="C54">
-        <v>0.8</v>
-      </c>
-      <c r="D54">
-        <v>0.3</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1439,7 +1414,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -30,7 +30,7 @@
     <author>Joseph Collins</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
-  <si>
-    <t>base_incidence_low_birth_weight</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>cfr_neonatal_sepsis</t>
   </si>
@@ -83,9 +80,6 @@
   </si>
   <si>
     <t>Dummy</t>
-  </si>
-  <si>
-    <t>Prevalence of low birth weight and its association with maternal body weight status in selected countries in Africa: a cross-sectional study (He et al. 2018)</t>
   </si>
   <si>
     <t>Estimates of possible severe bacterial infection in neonates in sub-Saharan Africa, south Asia, and Latin America for 2012: a systematic review and meta-analysis. (Seale at al 2014)</t>
@@ -383,16 +377,19 @@
     <t>cfr_severe_enceph</t>
   </si>
   <si>
-    <t>cfr_early_preterm</t>
-  </si>
-  <si>
-    <t>cfr_late_preterm</t>
-  </si>
-  <si>
     <t>delayed_treatment_effect_resuscitation</t>
   </si>
   <si>
     <t>prompt_treatment_effect_resuscitation</t>
+  </si>
+  <si>
+    <t>rr_preterm_death_early_preterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy </t>
+  </si>
+  <si>
+    <t>cfr_preterm_birth</t>
   </si>
 </sst>
 </file>
@@ -761,222 +758,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="85.85546875" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0.121</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>8.0000000000000002E-3</v>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.7000000000000004E-2</v>
+        <v>63</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
         <v>1.8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2.6</v>
-      </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.3</v>
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1">
         <v>0.1</v>
       </c>
       <c r="C18" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,137 +984,134 @@
         <v>41</v>
       </c>
       <c r="B19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>8.67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
-        <v>8.67</v>
+        <v>3.77</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1">
-        <v>3.77</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1">
-        <v>2.5099999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>3.8</v>
+        <v>8.74</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="1">
-        <v>8.74</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>42</v>
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>0.15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <v>0.15</v>
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0.67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1122,132 +1119,129 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>0.77</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B33">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.6</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>0.64</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B36">
-        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>0.64</v>
+        <v>0.25</v>
+      </c>
+      <c r="C37">
+        <v>0.38</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B38">
-        <v>0.25</v>
-      </c>
-      <c r="C38">
-        <v>0.38</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B39">
         <v>0.1</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40">
         <v>0.1</v>
       </c>
       <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>11</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="C41">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>0.25</v>
-      </c>
-      <c r="C42">
-        <v>0.15</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1255,149 +1249,144 @@
         <v>78</v>
       </c>
       <c r="B43">
-        <v>0.25</v>
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B44">
-        <v>0.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="C44">
+        <v>0.69</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="B45">
         <v>0.5</v>
       </c>
-      <c r="C45">
-        <v>0.69</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>71</v>
+      <c r="D45" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>27</v>
+      <c r="A46" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0.4</v>
+      </c>
+      <c r="D46">
+        <v>0.6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C47">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D47">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.4</v>
+      </c>
+      <c r="D48">
         <v>0.9</v>
       </c>
-      <c r="C48">
-        <v>0.8</v>
-      </c>
-      <c r="D48">
-        <v>0.3</v>
-      </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C49">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D49">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C50">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="D50">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="C51">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D51">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52">
-        <v>0.9</v>
-      </c>
-      <c r="C52">
-        <v>0.8</v>
-      </c>
-      <c r="D52">
-        <v>0.3</v>
-      </c>
-      <c r="E52" t="s">
-        <v>7</v>
-      </c>
+      <c r="A52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +934,7 @@
         <v>64</v>
       </c>
       <c r="B15" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -1192,7 +1192,7 @@
         <v>73</v>
       </c>
       <c r="B38">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1204,7 +1204,7 @@
         <v>74</v>
       </c>
       <c r="B39">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
@@ -1218,7 +1218,7 @@
         <v>75</v>
       </c>
       <c r="B40">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
@@ -1249,7 +1249,7 @@
         <v>78</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
         <v>79</v>
@@ -1260,9 +1260,6 @@
         <v>68</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
-      </c>
-      <c r="C44">
         <v>0.69</v>
       </c>
       <c r="D44" s="5" t="s">

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -761,7 +761,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="B46" sqref="B46:B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,9 +1282,6 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
         <v>0.4</v>
       </c>
       <c r="D46">
@@ -1299,9 +1296,6 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.9</v>
-      </c>
-      <c r="C47">
         <v>0.8</v>
       </c>
       <c r="D47">
@@ -1316,9 +1310,6 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
         <v>0.4</v>
       </c>
       <c r="D48">
@@ -1333,9 +1324,6 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.9</v>
-      </c>
-      <c r="C49">
         <v>0.8</v>
       </c>
       <c r="D49">
@@ -1350,9 +1338,6 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
         <v>0.4</v>
       </c>
       <c r="D50">
@@ -1367,9 +1352,6 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.9</v>
-      </c>
-      <c r="C51">
         <v>0.8</v>
       </c>
       <c r="D51">

--- a/resources/ResourceFile_NewbornOutcomes.xlsx
+++ b/resources/ResourceFile_NewbornOutcomes.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="parameter_values" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,26 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Joseph Collins</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Joseph Collins:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+starting at 24 weeks, red are dummys</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
-  <si>
-    <t>base_incidence_low_birth_weight</t>
-  </si>
-  <si>
-    <t>base_incidence_sga</t>
-  </si>
-  <si>
-    <t>prob_early_onset_neonatal_sepsis</t>
-  </si>
-  <si>
-    <t>prob_ivh_preterm</t>
-  </si>
-  <si>
-    <t>prob_nec_preterm</t>
-  </si>
-  <si>
-    <t>prob_nrds_preterm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>cfr_neonatal_sepsis</t>
   </si>
@@ -59,27 +76,12 @@
     <t>prob_early_breastfeeding_hf</t>
   </si>
   <si>
-    <t>prob_successful_resuscitation</t>
-  </si>
-  <si>
-    <t>cfr_enceph_mild_mod</t>
-  </si>
-  <si>
-    <t>cfr_enceph_severe</t>
-  </si>
-  <si>
-    <t>prob_encephalopathy</t>
-  </si>
-  <si>
     <t>Source/Early assumptions</t>
   </si>
   <si>
     <t>Dummy</t>
   </si>
   <si>
-    <t>Prevalence of low birth weight and its association with maternal body weight status in selected countries in Africa: a cross-sectional study (He et al. 2018)</t>
-  </si>
-  <si>
     <t>Estimates of possible severe bacterial infection in neonates in sub-Saharan Africa, south Asia, and Latin America for 2012: a systematic review and meta-analysis. (Seale at al 2014)</t>
   </si>
   <si>
@@ -89,12 +91,6 @@
     <t>Intrapartum-related neonatal encephalopathy incidence and impairment at regional and global levels for 2010 with trends from 1990 (Lee et al. 2013)</t>
   </si>
   <si>
-    <t>Improving incidence trends of severe intraventricular haemorrhages in preterm infants (Yeo et al 2019)</t>
-  </si>
-  <si>
-    <t>Evaluating WHO-Recommended Interventions for Preterm Birth: A Mathematical Model of the Potential Reduction of Preterm Mortality in Sub-Saharan Africa (Griffen et al 2019)</t>
-  </si>
-  <si>
     <t>Malawi Demographic and Health Survey (2015)</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
     <t>Malawi Service Provision Assesment (2014)</t>
   </si>
   <si>
-    <t>prob_resp_depression</t>
-  </si>
-  <si>
     <t>prob_congenital_ba</t>
   </si>
   <si>
@@ -140,14 +133,270 @@
     <t>[0.4, 0.3, 0.2, 0.1]</t>
   </si>
   <si>
-    <t>cfr_respiratory_depression</t>
+    <t>prob_failure_to_transition</t>
+  </si>
+  <si>
+    <t>prob_care_seeking_for_complication</t>
+  </si>
+  <si>
+    <t>cfr_failed_to_transition</t>
+  </si>
+  <si>
+    <t>mean_birth_weights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthropometry of Malawian live births between 35 and 41 weeks of gestation AND Anthropometric Charts for Infants Born Between 22 and 29 Weeks’ Gestation
+</t>
+  </si>
+  <si>
+    <t>red= made up</t>
+  </si>
+  <si>
+    <t>odds_early_onset_neonatal_sepsis</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_preterm</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_lbw</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_vlbw</t>
+  </si>
+  <si>
+    <t>Risk Factors for Neonatal Sepsis and Perinatal Death Among Infants Enrolled in the Prevention of Perinatal Sepsis Trial, Soweto, South Africa</t>
+  </si>
+  <si>
+    <t>odds_enceph_hypertension</t>
+  </si>
+  <si>
+    <t>odds_enceph_males</t>
+  </si>
+  <si>
+    <t>odds_enceph_obstructed_labour</t>
+  </si>
+  <si>
+    <t>odds_enceph_acute_event</t>
+  </si>
+  <si>
+    <t>odds_encephalopathy</t>
+  </si>
+  <si>
+    <t>Perinatal risk factors for neonatal encephalopathy: an unmatched case-control study</t>
+  </si>
+  <si>
+    <t>odds_enceph_neonatal_sepsis</t>
+  </si>
+  <si>
+    <t>rr_sepsis_tetracycline</t>
+  </si>
+  <si>
+    <t>rr_sepsis_cord_care</t>
+  </si>
+  <si>
+    <t>Effect of chlorhexidine cord application on prevention of neonatal sepsis in developing countries: Systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_neonatal_sepsis_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_neonatal_sepsis_hp</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_ftt_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_ftt_hp</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_lbw_hc</t>
+  </si>
+  <si>
+    <t>sensitivity_of_assessment_of_lbw_hp</t>
+  </si>
+  <si>
+    <t>prob_mild_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>prob_mod_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>prob_severe_enceph_disabilities</t>
+  </si>
+  <si>
+    <t>[0.3, 0.3,  0.2,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.1,  0.1,  0.3, 0.4]</t>
+  </si>
+  <si>
+    <t>DATA - intrapartum-related neonatal encephalopathy incidence and impairment at regional and global levels for 2010 with trends from 1990</t>
+  </si>
+  <si>
+    <t>[0.4, 0.1,  0.3,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>prob_sepsis_disabilities</t>
+  </si>
+  <si>
+    <t>[0.2, 0.2,  0.1,  0.2, 0.3]</t>
+  </si>
+  <si>
+    <t>prob_disability_&lt;28wks</t>
+  </si>
+  <si>
+    <t>prob_disability_28_32wks</t>
+  </si>
+  <si>
+    <t>prob_disability_33_36wks</t>
+  </si>
+  <si>
+    <t>odds_ratio_sepsis_parity0</t>
+  </si>
+  <si>
+    <t>prompt_treatment_effect_sepsis</t>
+  </si>
+  <si>
+    <t>delayed_treatment_effect_sepsis</t>
+  </si>
+  <si>
+    <t>[0.5, 0.1,  0.2,  0.1, 0.1]</t>
+  </si>
+  <si>
+    <t>[0.1, 0.2,  0.1,  0.4, 0.2]</t>
+  </si>
+  <si>
+    <t>rr_preterm_death_steroids</t>
+  </si>
+  <si>
+    <t>Antenatal corticosteroids for accelerating fetal lung maturation for women at risk of preterm birth</t>
+  </si>
+  <si>
+    <t>standard_deviation_birth_weights</t>
+  </si>
+  <si>
+    <r>
+      <t>[657, 746, 851, 966, 1096,1240,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1300,1600,1850,2150,2200</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2442,2736,2856, 2995, 3036, 3117, 3136]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[113, 140, 169, 196, 218,  235 , </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>245,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">260, 270, 285, 296, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">460, 467, 398, 356, 351, 396, 351 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>cfr_mild_enceph</t>
+  </si>
+  <si>
+    <t>cfr_moderate_enceph</t>
+  </si>
+  <si>
+    <t>cfr_severe_enceph</t>
+  </si>
+  <si>
+    <t>delayed_treatment_effect_resuscitation</t>
+  </si>
+  <si>
+    <t>prompt_treatment_effect_resuscitation</t>
+  </si>
+  <si>
+    <t>rr_preterm_death_early_preterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dummy </t>
+  </si>
+  <si>
+    <t>cfr_preterm_birth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +409,41 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,12 +469,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,260 +757,633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" customWidth="1"/>
+    <col min="1" max="1" width="42.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="1">
+        <v>8.67</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.77</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>0.15</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0.67</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0.77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33">
+        <v>0.8</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <v>0.6</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>0.64</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.121</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B37">
+        <v>0.25</v>
+      </c>
+      <c r="C37">
+        <v>0.38</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>0.25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>0.25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>0.25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>0.25</v>
+      </c>
+      <c r="C41">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>0.16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>0.214</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>0.2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0.15</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>0.67</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>0.77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44">
+        <v>0.69</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>0.4</v>
+      </c>
+      <c r="D46">
         <v>0.6</v>
       </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>0.38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
-        <v>0.15</v>
-      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.8</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.4</v>
+      </c>
+      <c r="D48">
+        <v>0.9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.8</v>
+      </c>
+      <c r="D49">
+        <v>0.65</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>0.4</v>
+      </c>
+      <c r="D50">
+        <v>0.6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>0.8</v>
+      </c>
+      <c r="D51">
+        <v>0.3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>